--- a/excel/1d/ph_pl_data_1d_backup.xlsx
+++ b/excel/1d/ph_pl_data_1d_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G913"/>
+  <dimension ref="A1:G925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23274,6 +23274,306 @@
         <v>944</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C914" t="n">
+        <v>2453.699951171875</v>
+      </c>
+      <c r="D914" t="n">
+        <v>2336.550048828125</v>
+      </c>
+      <c r="E914" t="n">
+        <v>2373.14990234375</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2453.699951171875</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C915" t="n">
+        <v>2541.300048828125</v>
+      </c>
+      <c r="D915" t="n">
+        <v>2467.050048828125</v>
+      </c>
+      <c r="E915" t="n">
+        <v>2492.050048828125</v>
+      </c>
+      <c r="F915" t="n">
+        <v>1</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2541.300048828125</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C916" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="D916" t="n">
+        <v>2644.449951171875</v>
+      </c>
+      <c r="E916" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="F916" t="n">
+        <v>1</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2791.800048828125</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1966.699951171875</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1864.199951171875</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1957.699951171875</v>
+      </c>
+      <c r="F917" t="n">
+        <v>2</v>
+      </c>
+      <c r="G917" t="n">
+        <v>1864.199951171875</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C918" t="n">
+        <v>2265.449951171875</v>
+      </c>
+      <c r="D918" t="n">
+        <v>2175.35009765625</v>
+      </c>
+      <c r="E918" t="n">
+        <v>2256.800048828125</v>
+      </c>
+      <c r="F918" t="n">
+        <v>2</v>
+      </c>
+      <c r="G918" t="n">
+        <v>2175.35009765625</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C919" t="n">
+        <v>2176.14990234375</v>
+      </c>
+      <c r="D919" t="n">
+        <v>2097.050048828125</v>
+      </c>
+      <c r="E919" t="n">
+        <v>2135.550048828125</v>
+      </c>
+      <c r="F919" t="n">
+        <v>2</v>
+      </c>
+      <c r="G919" t="n">
+        <v>2097.050048828125</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C920" t="n">
+        <v>2015.449951171875</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1963.150024414062</v>
+      </c>
+      <c r="E920" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F920" t="n">
+        <v>1</v>
+      </c>
+      <c r="G920" t="n">
+        <v>2015.449951171875</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C921" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="D921" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E921" t="n">
+        <v>2106.75</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1</v>
+      </c>
+      <c r="G921" t="n">
+        <v>2143.800048828125</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C922" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D922" t="n">
+        <v>2051.050048828125</v>
+      </c>
+      <c r="E922" t="n">
+        <v>2062.5</v>
+      </c>
+      <c r="F922" t="n">
+        <v>1</v>
+      </c>
+      <c r="G922" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1791.400024414062</v>
+      </c>
+      <c r="F923" t="n">
+        <v>2</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C924" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1878.599975585938</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1951.75</v>
+      </c>
+      <c r="F924" t="n">
+        <v>2</v>
+      </c>
+      <c r="G924" t="n">
+        <v>1878.599975585938</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1976.849975585938</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1936.050048828125</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1969.550048828125</v>
+      </c>
+      <c r="F925" t="n">
+        <v>2</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1936.050048828125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1d/ph_pl_data_1d_backup.xlsx
+++ b/excel/1d/ph_pl_data_1d_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1955"/>
+  <dimension ref="A1:G1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49324,6 +49324,306 @@
         <v>1069.300048828125</v>
       </c>
     </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1956" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>2453.699951171875</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>2336.550048828125</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>2373.14990234375</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>2453.699951171875</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1957" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>2541.300048828125</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>2467.050048828125</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>2492.050048828125</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>2541.300048828125</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1958" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>2791.800048828125</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>2644.449951171875</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>2704.5</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>2791.800048828125</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1959" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>1966.699951171875</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>1864.199951171875</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>1957.699951171875</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>1864.199951171875</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1960" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>2265.449951171875</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>2175.35009765625</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>2256.800048828125</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>2175.35009765625</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>GODREJPROP.NS</t>
+        </is>
+      </c>
+      <c r="B1961" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>2176.14990234375</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>2097.050048828125</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>2135.550048828125</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>2097.050048828125</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1962" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>2015.449951171875</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>1963.150024414062</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>1991</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>2015.449951171875</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1963" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>2143.800048828125</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>2106.75</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>2143.800048828125</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1964" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>2051.050048828125</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>2062.5</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1965" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>1791.400024414062</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1966" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>1878.599975585938</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>1951.75</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>1878.599975585938</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>ASTRAL.NS</t>
+        </is>
+      </c>
+      <c r="B1967" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>1976.849975585938</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>1936.050048828125</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>1969.550048828125</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>1936.050048828125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1d/ph_pl_data_1d_backup.xlsx
+++ b/excel/1d/ph_pl_data_1d_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2380"/>
+  <dimension ref="A1:G2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59949,6 +59949,156 @@
         <v>82.84999847412109</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2381" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C2381" t="n">
+        <v>74245.171875</v>
+      </c>
+      <c r="D2381" t="n">
+        <v>73921.4765625</v>
+      </c>
+      <c r="E2381" t="n">
+        <v>74119.390625</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>74245.171875</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2382" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C2382" t="n">
+        <v>75124.28125</v>
+      </c>
+      <c r="D2382" t="n">
+        <v>74603.3671875</v>
+      </c>
+      <c r="E2382" t="n">
+        <v>74683.703125</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>75124.28125</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2383" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C2383" t="n">
+        <v>75111.390625</v>
+      </c>
+      <c r="D2383" t="n">
+        <v>74346.3984375</v>
+      </c>
+      <c r="E2383" t="n">
+        <v>74482.78125</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>75111.390625</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2384" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C2384" t="n">
+        <v>73210.171875</v>
+      </c>
+      <c r="D2384" t="n">
+        <v>71816.4609375</v>
+      </c>
+      <c r="E2384" t="n">
+        <v>73088.328125</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>71816.4609375</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2385" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C2385" t="n">
+        <v>72863.5625</v>
+      </c>
+      <c r="D2385" t="n">
+        <v>71866.0078125</v>
+      </c>
+      <c r="E2385" t="n">
+        <v>72776.1328125</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>71866.0078125</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2386" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C2386" t="n">
+        <v>76300.4609375</v>
+      </c>
+      <c r="D2386" t="n">
+        <v>70234.4296875</v>
+      </c>
+      <c r="E2386" t="n">
+        <v>72079.046875</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>70234.4296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1d/ph_pl_data_1d_backup.xlsx
+++ b/excel/1d/ph_pl_data_1d_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2386"/>
+  <dimension ref="A1:G2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60099,6 +60099,156 @@
         <v>70234.4296875</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2387" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C2387" t="n">
+        <v>13533.150390625</v>
+      </c>
+      <c r="D2387" t="n">
+        <v>13364.099609375</v>
+      </c>
+      <c r="E2387" t="n">
+        <v>13461.5498046875</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>13533.150390625</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2388" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C2388" t="n">
+        <v>14141</v>
+      </c>
+      <c r="D2388" t="n">
+        <v>14015.25</v>
+      </c>
+      <c r="E2388" t="n">
+        <v>14062.2001953125</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>14141</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2389" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C2389" t="n">
+        <v>14171.7001953125</v>
+      </c>
+      <c r="D2389" t="n">
+        <v>14037.650390625</v>
+      </c>
+      <c r="E2389" t="n">
+        <v>14049.099609375</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>14171.7001953125</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2390" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C2390" t="n">
+        <v>13668.2001953125</v>
+      </c>
+      <c r="D2390" t="n">
+        <v>13385.0498046875</v>
+      </c>
+      <c r="E2390" t="n">
+        <v>13595.4501953125</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>13385.0498046875</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2391" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C2391" t="n">
+        <v>13927.7001953125</v>
+      </c>
+      <c r="D2391" t="n">
+        <v>13654.0498046875</v>
+      </c>
+      <c r="E2391" t="n">
+        <v>13909.900390625</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>13654.0498046875</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2392" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C2392" t="n">
+        <v>14937.75</v>
+      </c>
+      <c r="D2392" t="n">
+        <v>13284.2001953125</v>
+      </c>
+      <c r="E2392" t="n">
+        <v>13762.25</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>13284.2001953125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1d/ph_pl_data_1d_backup.xlsx
+++ b/excel/1d/ph_pl_data_1d_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2404"/>
+  <dimension ref="A1:G2410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60549,6 +60549,156 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2405" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C2405" t="n">
+        <v>1473.849975585938</v>
+      </c>
+      <c r="D2405" t="n">
+        <v>1418.050048828125</v>
+      </c>
+      <c r="E2405" t="n">
+        <v>1448.75</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>1473.849975585938</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2406" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C2406" t="n">
+        <v>1404.400024414062</v>
+      </c>
+      <c r="D2406" t="n">
+        <v>1378.5</v>
+      </c>
+      <c r="E2406" t="n">
+        <v>1387.5</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>1404.400024414062</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2407" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="C2407" t="n">
+        <v>1505.099975585938</v>
+      </c>
+      <c r="D2407" t="n">
+        <v>1470.599975585938</v>
+      </c>
+      <c r="E2407" t="n">
+        <v>1474.449951171875</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>1505.099975585938</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2408" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C2408" t="n">
+        <v>1341.699951171875</v>
+      </c>
+      <c r="D2408" t="n">
+        <v>1307.050048828125</v>
+      </c>
+      <c r="E2408" t="n">
+        <v>1320.400024414062</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>1307.050048828125</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2409" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C2409" t="n">
+        <v>1320.400024414062</v>
+      </c>
+      <c r="D2409" t="n">
+        <v>1294</v>
+      </c>
+      <c r="E2409" t="n">
+        <v>1317.199951171875</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>BATAINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2410" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C2410" t="n">
+        <v>1372</v>
+      </c>
+      <c r="D2410" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E2410" t="n">
+        <v>1337.199951171875</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>1269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
